--- a/reference/combat_modelling.xlsx
+++ b/reference/combat_modelling.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\NotQuiteParadise\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D970A5-9C8A-4A72-A8C2-6970122CC02E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53670E5-638C-4446-99E6-EFE674D963C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="6915" activeTab="4" xr2:uid="{B61F704B-B289-4DB0-8A42-128F7E4E2B4C}"/>
+    <workbookView xWindow="36450" yWindow="0" windowWidth="15150" windowHeight="21000" activeTab="2" xr2:uid="{B61F704B-B289-4DB0-8A42-128F7E4E2B4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lists" sheetId="2" r:id="rId1"/>
-    <sheet name="Reference_Data" sheetId="5" r:id="rId2"/>
+    <sheet name="Reference_Data" sheetId="5" r:id="rId1"/>
+    <sheet name="Lists" sheetId="2" r:id="rId2"/>
     <sheet name="Stats" sheetId="1" r:id="rId3"/>
     <sheet name="Attacks" sheetId="4" r:id="rId4"/>
     <sheet name="Testing" sheetId="3" r:id="rId5"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -245,33 +245,9 @@
     <t>Selections</t>
   </si>
   <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>Adulthood</t>
-  </si>
-  <si>
     <t>Beggar</t>
   </si>
   <si>
-    <t>youth_options</t>
-  </si>
-  <si>
-    <t>Silver Spoon</t>
-  </si>
-  <si>
-    <t>adult_options</t>
-  </si>
-  <si>
-    <t>Panhandler</t>
-  </si>
-  <si>
-    <t>Swashbuckler</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
     <t>Total value</t>
   </si>
   <si>
@@ -453,6 +429,42 @@
   </si>
   <si>
     <t>1% cost reduction</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Scandal</t>
+  </si>
+  <si>
+    <t>Greed</t>
+  </si>
+  <si>
+    <t>Hustler</t>
+  </si>
+  <si>
+    <t>trade_options</t>
+  </si>
+  <si>
+    <t>motive_options</t>
+  </si>
+  <si>
+    <t>Motive</t>
+  </si>
+  <si>
+    <t>Subtelty</t>
+  </si>
+  <si>
+    <t>Clout</t>
+  </si>
+  <si>
+    <t>Vigour</t>
+  </si>
+  <si>
+    <t>Exactitude</t>
+  </si>
+  <si>
+    <t>Bustle</t>
   </si>
 </sst>
 </file>
@@ -709,19 +721,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,30 +776,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,16 +803,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,45 +833,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="47">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -874,7 +894,140 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -908,9 +1061,9 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1060,191 +1213,9 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1262,7 +1233,23 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1297,6 +1284,22 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1330,6 +1333,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1357,23 +1363,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1438,6 +1427,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1449,7 +1457,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1495,9 +1503,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1516,31 +1521,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3989283-C892-4BE8-A2D6-08670D366655}" name="entity_derived_stats" displayName="entity_derived_stats" ref="J4:S15" totalsRowShown="0" headerRowDxfId="46" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3989283-C892-4BE8-A2D6-08670D366655}" name="entity_derived_stats" displayName="entity_derived_stats" ref="J4:S15" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1B12CC0D-6C49-44B7-B5B8-59E6F5B875D8}" name="Category" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{67245A39-D1B1-464D-A913-AACC5C225666}" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{3A7154BA-3B59-48CE-9716-00AC21282410}" name="Purpose" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{6D2A7CE3-B084-4703-A01C-FA4044FCBADD}" name="Base" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{97AEDF29-8600-4A46-A1EB-7E68F214C354}" name="Derived from (1)" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{B3FC682D-7D86-4737-A46A-7969BA2F92F7}" name="Amount Derived (1)" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{92DE413B-A86B-41EC-A2DC-FCAC6A8B4E7B}" name="Derived from (2)" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{2225EBCC-5260-46EC-9E65-4F659540D173}" name="Amount Derived (2)" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{5000356C-8F12-4F1A-A10D-94D5F00229C6}" name="Derived from (3)" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{86A10BCB-9872-4CF6-9EC5-235C5316E5AB}" name="Amount Derived (3)" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{67245A39-D1B1-464D-A913-AACC5C225666}" name="Name" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{3A7154BA-3B59-48CE-9716-00AC21282410}" name="Purpose" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{6D2A7CE3-B084-4703-A01C-FA4044FCBADD}" name="Base" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{97AEDF29-8600-4A46-A1EB-7E68F214C354}" name="Derived from (1)" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{B3FC682D-7D86-4737-A46A-7969BA2F92F7}" name="Amount Derived (1)" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{92DE413B-A86B-41EC-A2DC-FCAC6A8B4E7B}" name="Derived from (2)" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{2225EBCC-5260-46EC-9E65-4F659540D173}" name="Amount Derived (2)" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{5000356C-8F12-4F1A-A10D-94D5F00229C6}" name="Derived from (3)" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{86A10BCB-9872-4CF6-9EC5-235C5316E5AB}" name="Amount Derived (3)" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56842182-A38F-472C-8F28-74F940CA139A}" name="entity_primary_stats" displayName="entity_primary_stats" ref="B4:H9" totalsRowShown="0" headerRowDxfId="45" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56842182-A38F-472C-8F28-74F940CA139A}" name="entity_primary_stats" displayName="entity_primary_stats" ref="B4:H9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00F24B6A-A907-4E37-8082-FC7DA03CD0E4}" name="Name" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{00F24B6A-A907-4E37-8082-FC7DA03CD0E4}" name="Name" dataDxfId="0">
       <calculatedColumnFormula>Lists!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B612A34B-677F-4CF3-9DB1-A4DEF7A0ECC0}" name="Purpose" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{D00B2AAA-E32A-4AED-B6E4-C6D71C6713CC}" name="Influences" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{B612A34B-677F-4CF3-9DB1-A4DEF7A0ECC0}" name="Purpose" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D00B2AAA-E32A-4AED-B6E4-C6D71C6713CC}" name="Influences" dataDxfId="31">
       <calculatedColumnFormula>IF(OR($N$5=C5,$P$5=C5,$R$5=C5),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C5,$P$6=C5,$R$6=C5),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C5,$P$7=C5,$R$7=C5),$K$7 &amp; ", ","") &amp;
@@ -1553,31 +1558,31 @@
 IF(OR($N$14=C5,$P$14=C5,$R$14=C5),$K$14 &amp; ", ","") &amp;
 IF(OR($N$15=C5,$P$15=C5,$R$15=C5),$K$15 &amp; ", ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E4038DD6-1CD5-43C6-9217-100476CEC204}" name="# influenced stats" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{E4038DD6-1CD5-43C6-9217-100476CEC204}" name="# influenced stats" dataDxfId="30">
       <calculatedColumnFormula>LEN(D5)-LEN(SUBSTITUTE(D5,",",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{175CFB49-E265-4916-B0C4-D5DEA5BEBF51}" name="Stat value" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{175CFB49-E265-4916-B0C4-D5DEA5BEBF51}" name="Stat value" dataDxfId="29">
       <calculatedColumnFormula>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9B7ABCA-BC18-4059-B614-A6254871E453}" name="min # " dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{77EC5584-7C71-434B-8C87-E752B3CA1F16}" name="max #" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{C9B7ABCA-BC18-4059-B614-A6254871E453}" name="min # " dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{77EC5584-7C71-434B-8C87-E752B3CA1F16}" name="max #" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B1EC6D-90B4-4431-8769-8725ACDB1262}" name="adult" displayName="adult" ref="J18:P20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B1EC6D-90B4-4431-8769-8725ACDB1262}" name="adult" displayName="adult" ref="J18:P20" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C498C6EC-EDCF-46B5-AC54-19697D44ACEE}" name="Name" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{C498C6EC-EDCF-46B5-AC54-19697D44ACEE}" name="Name" dataDxfId="24">
       <calculatedColumnFormula>Lists!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{173660BE-87D9-47FB-AA17-824F2720DA45}" name="Damage" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{14AD948D-BA0F-46D8-90E7-33C50DEE188A}" name="Accuracy" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{665079BF-14DC-4613-BA06-762971C6C47E}" name="Speed" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{47CFB954-5875-48DC-A786-5961B7D5B694}" name="Statuses" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{A39EAF1B-106D-4B64-9FE8-19283A107000}" name="Health" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{CC6A1BE2-5E8D-44B4-B68F-A740FC943358}" name="Total value" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{173660BE-87D9-47FB-AA17-824F2720DA45}" name="Damage" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{14AD948D-BA0F-46D8-90E7-33C50DEE188A}" name="Accuracy" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{665079BF-14DC-4613-BA06-762971C6C47E}" name="Speed" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{47CFB954-5875-48DC-A786-5961B7D5B694}" name="Statuses" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A39EAF1B-106D-4B64-9FE8-19283A107000}" name="Health" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{CC6A1BE2-5E8D-44B4-B68F-A740FC943358}" name="Total value" dataDxfId="18">
       <calculatedColumnFormula>SUM(K19:O19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1586,17 +1591,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DCB3CFA5-EDF9-4FEE-AC07-3B1486B62A80}" name="youth" displayName="youth" ref="B18:H20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DCB3CFA5-EDF9-4FEE-AC07-3B1486B62A80}" name="youth" displayName="youth" ref="B18:H20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D75C2AFC-B2E2-4AD9-8D70-0092B38CAEBC}" name="Name" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{D75C2AFC-B2E2-4AD9-8D70-0092B38CAEBC}" name="Name" dataDxfId="15">
       <calculatedColumnFormula>Lists!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3DFCE0EF-9561-447F-98CC-14C2AE7D7D94}" name="Damage" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FE008038-ABB8-485E-9AB4-637C767011CA}" name="Accuracy" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{B48D67B2-B0DA-4E10-A588-E0E1BF2C9EE6}" name="Speed" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{45850A44-F014-4245-A354-C10DBFFC05EC}" name="Statuses" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{8D878A50-BA27-475A-BB61-3A54095090E4}" name="Health" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{CF1F4B93-9B1A-4429-AF43-D4CC73A31715}" name="Total value" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{3DFCE0EF-9561-447F-98CC-14C2AE7D7D94}" name="Damage" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FE008038-ABB8-485E-9AB4-637C767011CA}" name="Accuracy" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B48D67B2-B0DA-4E10-A588-E0E1BF2C9EE6}" name="Speed" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{45850A44-F014-4245-A354-C10DBFFC05EC}" name="Statuses" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8D878A50-BA27-475A-BB61-3A54095090E4}" name="Health" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{CF1F4B93-9B1A-4429-AF43-D4CC73A31715}" name="Total value" dataDxfId="9">
       <calculatedColumnFormula>SUM(C19:G19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1605,7 +1610,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{27A7BA62-89F1-47C8-BA1A-ACF34F294D38}" name="attack_skills" displayName="attack_skills" ref="B3:I5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{27A7BA62-89F1-47C8-BA1A-ACF34F294D38}" name="attack_skills" displayName="attack_skills" ref="B3:I5" totalsRowShown="0" headerRowDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EB8E6709-1E4E-4270-AE23-0136B1CFFBB6}" name="Name">
       <calculatedColumnFormula>Lists!H2</calculatedColumnFormula>
@@ -1918,11 +1923,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0CC672-EF6A-48D5-A741-29695D9133C3}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>Lists!N2</f>
+        <v>Graze</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>Lists!N3</f>
+        <v>Hit</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>Lists!N4</f>
+        <v>Crit</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>Lists!N2</f>
+        <v>Graze</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>Lists!N3</f>
+        <v>Hit</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>Lists!N4</f>
+        <v>Crit</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>Stats!K14</f>
+        <v>action_cost_change</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBAE13D-2CF7-4118-B88D-524CC47B3D0E}">
   <dimension ref="B1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +2056,7 @@
     <col min="3" max="3" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.28515625" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1945,215 +2069,97 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>85</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
         <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0CC672-EF6A-48D5-A741-29695D9133C3}">
-  <dimension ref="B2:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="str">
-        <f>Lists!N2</f>
-        <v>Graze</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>Lists!N3</f>
-        <v>Hit</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
-        <f>Lists!N4</f>
-        <v>Crit</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f>Lists!N2</f>
-        <v>Graze</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f>Lists!N3</f>
-        <v>Hit</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f>Lists!N4</f>
-        <v>Crit</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f>Stats!K14</f>
-        <v>action_cost_change</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2161,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131F03A5-DDF5-4590-8C79-0FDF3BA926D3}">
   <dimension ref="B2:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,26 +2195,26 @@
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="2" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -2243,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>36</v>
@@ -2265,14 +2271,14 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="3" t="str">
         <f>Lists!B2</f>
-        <v>Damage</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>Clout</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="4" t="str">
         <f>IF(OR($N$5=C5,$P$5=C5,$R$5=C5),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C5,$P$6=C5,$R$6=C5),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C5,$P$7=C5,$R$7=C5),$K$7 &amp; ", ","") &amp;
@@ -2286,57 +2292,57 @@
 IF(OR($N$15=C5,$P$15=C5,$R$15=C5),$K$15 &amp; ", ","")</f>
         <v xml:space="preserve">dodge_toughness, chance_to_hit, base_damage, </v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <f>LEN(D5)-LEN(SUBSTITUTE(D5,",",""))</f>
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <f>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="11">
-        <v>5</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="P5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="str">
+        <f>Lists!B3</f>
+        <v>Exactitude</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="str">
-        <f>Lists!B3</f>
-        <v>Accuracy</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="4" t="str">
         <f>IF(OR($N$5=C6,$P$5=C6,$R$5=C6),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C6,$P$6=C6,$R$6=C6),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C6,$P$7=C6,$R$7=C6),$K$7 &amp; ", ","") &amp;
@@ -2350,57 +2356,57 @@
 IF(OR($N$15=C6,$P$15=C6,$R$15=C6),$K$15 &amp; ", ","")</f>
         <v xml:space="preserve">dodge_speed, dodge_intelligence, chance_to_hit, </v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:E9" si="0">LEN(D6)-LEN(SUBSTITUTE(D6,",",""))</f>
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <f>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="3" t="str">
         <f>Lists!B4</f>
-        <v>Speed</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>Bustle</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="4" t="str">
         <f>IF(OR($N$5=C7,$P$5=C7,$R$5=C7),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C7,$P$6=C7,$R$6=C7),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C7,$P$7=C7,$R$7=C7),$K$7 &amp; ", ","") &amp;
@@ -2414,57 +2420,57 @@
 IF(OR($N$15=C7,$P$15=C7,$R$15=C7),$K$15 &amp; ", ","")</f>
         <v xml:space="preserve">dodge_speed, resist_pierce, action_cost_change, </v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <f>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
-        <v>20</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="11">
-        <v>5</v>
-      </c>
-      <c r="N7" s="9" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
+        <f>Lists!B5</f>
+        <v>Subtelty</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="9">
-        <v>3</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="str">
-        <f>Lists!B5</f>
-        <v>Statuses</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="4" t="str">
         <f>IF(OR($N$5=C8,$P$5=C8,$R$5=C8),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C8,$P$6=C8,$R$6=C8),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C8,$P$7=C8,$R$7=C8),$K$7 &amp; ", ","") &amp;
@@ -2478,53 +2484,53 @@
 IF(OR($N$15=C8,$P$15=C8,$R$15=C8),$K$15 &amp; ", ","")</f>
         <v xml:space="preserve">dodge_intelligence, resist_elemental, status_length, </v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <f>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</f>
-        <v>8</v>
-      </c>
-      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="3">
         <v>20</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="3" t="str">
         <f>Lists!B6</f>
-        <v>Health</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>Vigour</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="4" t="str">
         <f>IF(OR($N$5=C9,$P$5=C9,$R$5=C9),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C9,$P$6=C9,$R$6=C9),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C9,$P$7=C9,$R$7=C9),$K$7 &amp; ", ","") &amp;
@@ -2538,534 +2544,531 @@
 IF(OR($N$15=C9,$P$15=C9,$R$15=C9),$K$15 &amp; ", ","")</f>
         <v xml:space="preserve">dodge_toughness, resist_blunt, hit points, </v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="3">
         <f>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="3">
         <v>20</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="4">
         <v>20</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="3">
         <v>3</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="str">
         <f>IF(OR(N13=$C$5,P13=$C$5,R13=$C$5),K13 &amp; ", ","")</f>
         <v/>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="4">
         <v>20</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="3">
         <v>4</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="str">
         <f>IF(OR(N14=$C$5,P14=$C$5,R14=$C$5),K14 &amp; ", ","")</f>
         <v/>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="3">
         <v>2</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="str">
         <f>IF(OR(N15=$C$5,P15=$C$5,R15=$C$5),K15 &amp; ", ","")</f>
         <v/>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="3">
         <v>3</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="B17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
+      <c r="H18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="P18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="3" t="str">
         <f>Lists!D2</f>
         <v>Beggar</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="3">
         <v>-1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="3">
         <f>SUM(C19:G19)</f>
         <v>3</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="str">
-        <f>Lists!F2</f>
-        <v>Swashbuckler</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="3">
         <v>-1</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="3">
         <v>1</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="3">
         <f>SUM(K19:O19)</f>
         <v>4</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="str">
-        <f>Lists!D3</f>
-        <v>Silver Spoon</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="3">
         <f>SUM(C20:G20)</f>
         <v>3</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="str">
-        <f>Lists!F3</f>
-        <v>Panhandler</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="3">
         <v>2</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="3">
         <f>SUM(K20:O20)</f>
         <v>4</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3113,41 +3116,41 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>75</v>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -3155,26 +3158,26 @@
         <f>Lists!H2</f>
         <v>Basic</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6">
         <v>30</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>89</v>
+      <c r="H4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -3182,13 +3185,13 @@
         <f>Lists!H3</f>
         <v>Other</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3211,10 +3214,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF625DE-934F-4E85-999E-CE12A88CA770}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,1016 +3244,920 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="N2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+    </row>
+    <row r="3" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="N3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="N2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="16"/>
-    </row>
-    <row r="3" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="37"/>
-      <c r="N3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="35" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="36"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="8" t="str">
         <f>Lists!$B$2</f>
-        <v>Damage</v>
-      </c>
-      <c r="C4" s="42">
+        <v>Clout</v>
+      </c>
+      <c r="C4" s="17">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="8" t="str">
         <f>Lists!$B$2</f>
-        <v>Damage</v>
-      </c>
-      <c r="I4" s="33">
+        <v>Clout</v>
+      </c>
+      <c r="I4" s="12">
         <f>C4+
 IFERROR(VLOOKUP($F$4,youth[],2,FALSE),0) +
 IFERROR(VLOOKUP($F$5,adult[],2,FALSE), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25" t="str">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="str">
         <f>Stats!K5</f>
         <v>dodge_speed</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N5,Testing!H4:I8,2,FALSE),0) * Stats!O5)+
 (IFERROR(VLOOKUP(Stats!P5,Testing!H4:I8,2,FALSE),0) * Stats!Q5)+
 (IFERROR(VLOOKUP(Stats!R5,Testing!H4:I8,2,FALSE),0) * Stats!S5)+Stats!M5</f>
-        <v>24</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="42">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="17">
         <v>1</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="12">
+        <f>O8+L11</f>
+        <v>20</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="33">
-        <f>O8+L11</f>
-        <v>28</v>
-      </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="X4" s="33">
+      <c r="X4" s="12">
         <f>L28</f>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="8" t="str">
         <f>Lists!$B$3</f>
-        <v>Accuracy</v>
-      </c>
-      <c r="C5" s="42">
+        <v>Exactitude</v>
+      </c>
+      <c r="C5" s="17">
         <v>5</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25" t="str">
+      <c r="E5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="8" t="str">
         <f>Lists!$B$3</f>
-        <v>Accuracy</v>
-      </c>
-      <c r="I5" s="33">
+        <v>Exactitude</v>
+      </c>
+      <c r="I5" s="12">
         <f>C5+
 IFERROR(VLOOKUP($F$4,youth[],3,FALSE),0) +
 IFERROR(VLOOKUP($F$5,adult[],3,FALSE), 0)</f>
-        <v>7</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25" t="str">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8" t="str">
         <f>Stats!K6</f>
         <v>dodge_toughness</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N6,Testing!H4:I8,2,FALSE),0) * Stats!O6)+
 (IFERROR(VLOOKUP(Stats!P6,Testing!H4:I8,2,FALSE),0) * Stats!Q6)+
 (IFERROR(VLOOKUP(Stats!R6,Testing!H4:I8,2,FALSE),0) * Stats!S6)+Stats!M6</f>
-        <v>19</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="33">
+        <v>5</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="12"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="12"/>
+      <c r="T5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="12">
         <f>VLOOKUP(R15,Reference_Data!B4:D6,3,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" s="33">
+      <c r="W5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="12">
         <f>X4-U8</f>
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="8" t="str">
         <f>Lists!$B$4</f>
-        <v>Speed</v>
-      </c>
-      <c r="C6" s="42">
+        <v>Bustle</v>
+      </c>
+      <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25" t="str">
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="8" t="str">
         <f>Lists!$B$4</f>
-        <v>Speed</v>
-      </c>
-      <c r="I6" s="33">
+        <v>Bustle</v>
+      </c>
+      <c r="I6" s="12">
         <f>C6+
 IFERROR(VLOOKUP($F$4,youth[],4,FALSE),0) +
 IFERROR(VLOOKUP($F$5,adult[],4,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="8" t="str">
         <f>Stats!K7</f>
         <v>dodge_intelligence</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N7,Testing!H4:I8,2,FALSE),0) * Stats!O7)+
 (IFERROR(VLOOKUP(Stats!P7,Testing!H4:I8,2,FALSE),0) * Stats!Q7)+
 (IFERROR(VLOOKUP(Stats!R7,Testing!H4:I8,2,FALSE),0) * Stats!S7)+Stats!M7</f>
-        <v>27</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="33">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="12">
         <f>VLOOKUP($O$4,attack_skills[],2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="33">
+      <c r="Q6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="12">
         <v>1</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="33">
+      <c r="T6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="12">
         <f>ROUNDDOWN(U4*U5, 0)</f>
-        <v>14</v>
-      </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="8" t="str">
         <f>Lists!$B$5</f>
-        <v>Statuses</v>
-      </c>
-      <c r="C7" s="42">
+        <v>Subtelty</v>
+      </c>
+      <c r="C7" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="str">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="8" t="str">
         <f>Lists!$B$5</f>
-        <v>Statuses</v>
-      </c>
-      <c r="I7" s="33">
+        <v>Subtelty</v>
+      </c>
+      <c r="I7" s="12">
         <f>C7+
 IFERROR(VLOOKUP($F$4,youth[],5,FALSE),0) +
 IFERROR(VLOOKUP($F$5,adult[],5,FALSE), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25" t="str">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8" t="str">
         <f>Stats!K8</f>
         <v>resist_blunt</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N8,Testing!H4:I8,2,FALSE),0) * Stats!O8)+
 (IFERROR(VLOOKUP(Stats!P8,Testing!H4:I8,2,FALSE),0) * Stats!Q8)+
 (IFERROR(VLOOKUP(Stats!R8,Testing!H4:I8,2,FALSE),0) * Stats!S8)+Stats!M8</f>
-        <v>6</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="12" t="str">
         <f>VLOOKUP($O$4,attack_skills[],3,FALSE)</f>
         <v>Speed</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="33">
+      <c r="Q7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="12">
         <v>100</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="33"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="12"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="8" t="str">
         <f>Lists!$B$6</f>
-        <v>Health</v>
-      </c>
-      <c r="C8" s="42">
+        <v>Vigour</v>
+      </c>
+      <c r="C8" s="17">
         <v>5</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25" t="str">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="8" t="str">
         <f>Lists!$B$6</f>
-        <v>Health</v>
-      </c>
-      <c r="I8" s="33">
+        <v>Vigour</v>
+      </c>
+      <c r="I8" s="12">
         <f>C8+
 IFERROR(VLOOKUP($F$4,youth[],6,FALSE),0) +
 IFERROR(VLOOKUP($F$5,adult[],6,FALSE), 0)</f>
-        <v>6</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="str">
+        <v>7</v>
+      </c>
+      <c r="K8" s="8" t="str">
         <f>Stats!K9</f>
         <v>resist_pierce</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N9,Testing!H4:I8,2,FALSE),0) * Stats!O9)+
 (IFERROR(VLOOKUP(Stats!P9,Testing!H4:I8,2,FALSE),0) * Stats!Q9)+
 (IFERROR(VLOOKUP(Stats!R9,Testing!H4:I8,2,FALSE),0) * Stats!S9)+Stats!M9</f>
-        <v>6</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="12">
         <f>VLOOKUP($O$4,attack_skills[],4,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="str">
+      <c r="Q8" s="8" t="str">
         <f xml:space="preserve"> "Chance to " &amp;Lists!N2</f>
         <v>Chance to Graze</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="15">
         <f>IF(1-(R9+R10)&lt;0,0,1-(R9+R10))</f>
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="U8" s="34">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="13">
         <f>IF(U6-VLOOKUP("*"&amp;O9&amp;"*",K23:L25,2,FALSE)&lt;=0,
 1,
 U6-VLOOKUP("*"&amp;O9&amp;"*",K23:L25,2,FALSE))</f>
-        <v>7</v>
-      </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" s="40">
+        <v>10</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="15">
         <f>1-X5/X4</f>
-        <v>0.15909090909090906</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25" t="str">
+      <c r="B9" s="8"/>
+      <c r="C9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="8" t="str">
         <f>Stats!K10</f>
         <v>resist_elemental</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N10,Testing!H4:I8,2,FALSE),0) * Stats!O10)+
 (IFERROR(VLOOKUP(Stats!P10,Testing!H4:I8,2,FALSE),0) * Stats!Q10)+
 (IFERROR(VLOOKUP(Stats!R10,Testing!H4:I8,2,FALSE),0) * Stats!S10)+Stats!M10</f>
-        <v>10</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="12" t="str">
         <f>VLOOKUP($O$4,attack_skills[],5,FALSE)</f>
         <v>Pierce</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="25" t="str">
+      <c r="Q9" s="8" t="str">
         <f xml:space="preserve"> "Chance to " &amp;Lists!N3</f>
         <v>Chance to Hit</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="15">
         <f>IF((1-((hit_score-((O6+L10)-VLOOKUP("*"&amp;O7&amp;"*",K20:L22,2,FALSE)))/(R7-R6))-R10)&lt;0,
 0,
 (1-((hit_score-((O6+L10)-VLOOKUP("*"&amp;O7&amp;"*",K20:L22,2,FALSE)))/(R7-R6)))-R10)</f>
         <v>0.40404040404040398</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="33" t="str">
+      <c r="T9" s="8"/>
+      <c r="U9" s="12" t="str">
         <f>IF(U6-VLOOKUP("*"&amp;O9&amp;"*",K23:L25,2,FALSE)&lt;=0,
 "1 ("  &amp; U6-VLOOKUP("*"&amp;O9&amp;"*",K23:L25,2,FALSE) &amp; ")","")</f>
         <v/>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9" s="41">
+      <c r="W9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" s="16">
         <f>1/X8</f>
-        <v>6.2857142857142865</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25" t="str">
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="8" t="str">
         <f>Stats!K11</f>
         <v>chance_to_hit</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N11,Testing!H4:I8,2,FALSE),0) * Stats!O11)+
 (IFERROR(VLOOKUP(Stats!P11,Testing!H4:I8,2,FALSE),0) * Stats!Q11)+
 (IFERROR(VLOOKUP(Stats!R11,Testing!H4:I8,2,FALSE),0) * Stats!S11)+Stats!M11</f>
-        <v>49</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="33">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="12">
         <f>VLOOKUP($O$4,attack_skills[],6,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25" t="str">
+      <c r="Q10" s="8" t="str">
         <f xml:space="preserve"> "Chance to " &amp;Lists!N4</f>
         <v>Chance to Crit</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="15">
         <f>IF(1-((crit_score-((O6+L10)-VLOOKUP("*"&amp;O7&amp;"*",K20:L22,2,FALSE)))/(R7-R6))&lt;0,
 0,
 1-((crit_score-((O6+L10)-VLOOKUP("*"&amp;O7&amp;"*",K20:L22,2,FALSE)))/(R7-R6)))</f>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="33"/>
+        <v>4.0404040404040442E-2</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="12"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25" t="str">
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="8" t="str">
         <f>Stats!K12</f>
         <v>base_damage</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N12,Testing!H4:I8,2,FALSE),0) * Stats!O12)+
 (IFERROR(VLOOKUP(Stats!P12,Testing!H4:I8,2,FALSE),0) * Stats!Q12)+
 (IFERROR(VLOOKUP(Stats!R12,Testing!H4:I8,2,FALSE),0) * Stats!S12)+Stats!M12</f>
-        <v>13</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U11" s="34" t="str">
+        <v>5</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="12"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="12"/>
+      <c r="T11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="13" t="str">
         <f>IF(O12&lt;&gt;"None",IF(OR(R15=Reference_Data!B5, R15=Reference_Data!B6), "Yes", "No"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="X11" s="33">
+      <c r="W11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" s="12">
         <f>O10-O10*(L13/100)</f>
-        <v>26.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25" t="str">
+      <c r="B12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="8" t="str">
         <f>Stats!K13</f>
         <v>hit points</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N13,Testing!H4:I8,2,FALSE),0) * Stats!O13)+
 (IFERROR(VLOOKUP(Stats!P13,Testing!H4:I8,2,FALSE),0) * Stats!Q13)+
 (IFERROR(VLOOKUP(Stats!R13,Testing!H4:I8,2,FALSE),0) * Stats!S13)+Stats!M13</f>
-        <v>44</v>
-      </c>
-      <c r="N12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="12" t="str">
         <f>VLOOKUP($O$4,attack_skills[],7,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="25" t="s">
+      <c r="Q12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U12" s="34" t="str">
+      <c r="T12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="13" t="str">
         <f>IF(U11="Yes",
 IFERROR(VLOOKUP(R15,Reference_Data!B10:C12,2,FALSE),0)+O13,
  "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="V12" s="26"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="33"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25" t="str">
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="8" t="str">
         <f>Stats!K14</f>
         <v>action_cost_change</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N14,Testing!H4:I8,2,FALSE),0) * Stats!O14)+
 (IFERROR(VLOOKUP(Stats!P14,Testing!H4:I8,2,FALSE),0) * Stats!Q14)+
 (IFERROR(VLOOKUP(Stats!R14,Testing!H4:I8,2,FALSE),0) * Stats!S14)+Stats!M14</f>
-        <v>12</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="12" t="str">
         <f>VLOOKUP($O$4,attack_skills[],8,FALSE)</f>
         <v>N/A</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25">
+      <c r="Q13" s="8">
         <f>R4+O6+L10</f>
-        <v>60</v>
-      </c>
-      <c r="R13" s="33">
+        <v>31</v>
+      </c>
+      <c r="R13" s="12">
         <f>Q13-
 VLOOKUP("*"&amp;O7&amp;"*",K20:L22,2,FALSE)</f>
-        <v>33</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="12"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="27" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="str">
         <f>Stats!K15</f>
         <v>status_length</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="14">
         <f>(IFERROR(VLOOKUP(Stats!N15,Testing!H4:I8,2,FALSE),0) * Stats!O15)+
 (IFERROR(VLOOKUP(Stats!P15,Testing!H4:I8,2,FALSE),0) * Stats!Q15)+
 (IFERROR(VLOOKUP(Stats!R15,Testing!H4:I8,2,FALSE),0) * Stats!S15)+Stats!M15</f>
-        <v>15</v>
-      </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="12"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="12"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="12"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="N15" s="25"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="34" t="str">
+      <c r="N15" s="8"/>
+      <c r="O15" s="12"/>
+      <c r="Q15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="13" t="str">
         <f>IF(R13&gt;=crit_score,Reference_Data!B6,
 IF(R13&gt;=hit_score,Reference_Data!B5,Reference_Data!B4))</f>
         <v>Graze</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="33"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="12"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="N16" s="27"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="39"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="38" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="8" t="str">
         <f>Lists!$B$2</f>
-        <v>Damage</v>
-      </c>
-      <c r="C20" s="42">
+        <v>Clout</v>
+      </c>
+      <c r="C20" s="17">
         <v>5</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25" t="str">
+      <c r="E20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="8" t="str">
         <f>Lists!$B$2</f>
-        <v>Damage</v>
-      </c>
-      <c r="I20" s="33">
+        <v>Clout</v>
+      </c>
+      <c r="I20" s="12">
         <f>C20+
 IFERROR(VLOOKUP($F$20,youth[],2,FALSE),0) +
 IFERROR(VLOOKUP($F$21,adult[],2,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25" t="str">
+      <c r="K20" s="8" t="str">
         <f>Stats!K5</f>
         <v>dodge_speed</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N5,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O5)+
 (IFERROR(VLOOKUP(Stats!P5,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q5)+
 (IFERROR(VLOOKUP(Stats!R5,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S5)+Stats!M5</f>
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="8" t="str">
         <f>Lists!$B$3</f>
-        <v>Accuracy</v>
-      </c>
-      <c r="C21" s="42">
+        <v>Exactitude</v>
+      </c>
+      <c r="C21" s="17">
         <v>5</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25" t="str">
+      <c r="E21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="8" t="str">
         <f>Lists!$B$3</f>
-        <v>Accuracy</v>
-      </c>
-      <c r="I21" s="33">
+        <v>Exactitude</v>
+      </c>
+      <c r="I21" s="12">
         <f>C21+
 IFERROR(VLOOKUP($F$20,youth[],3,FALSE),0) +
 IFERROR(VLOOKUP($F$21,adult[],3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25" t="str">
+      <c r="K21" s="8" t="str">
         <f>Stats!K6</f>
         <v>dodge_toughness</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N6,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O6)+
 (IFERROR(VLOOKUP(Stats!P6,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q6)+
 (IFERROR(VLOOKUP(Stats!R6,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S6)+Stats!M6</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="8" t="str">
         <f>Lists!$B$4</f>
-        <v>Speed</v>
-      </c>
-      <c r="C22" s="42">
+        <v>Bustle</v>
+      </c>
+      <c r="C22" s="17">
         <v>5</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25" t="str">
+      <c r="E22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="8" t="str">
         <f>Lists!$B$4</f>
-        <v>Speed</v>
-      </c>
-      <c r="I22" s="33">
+        <v>Bustle</v>
+      </c>
+      <c r="I22" s="12">
         <f>C22+
 IFERROR(VLOOKUP($F$20,youth[],4,FALSE),0) +
 IFERROR(VLOOKUP($F$21,adult[],4,FALSE), 0)</f>
         <v>7</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25" t="str">
+      <c r="K22" s="8" t="str">
         <f>Stats!K7</f>
         <v>dodge_intelligence</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N7,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O7)+
 (IFERROR(VLOOKUP(Stats!P7,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q7)+
 (IFERROR(VLOOKUP(Stats!R7,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S7)+Stats!M7</f>
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="8" t="str">
         <f>Lists!$B$5</f>
-        <v>Statuses</v>
-      </c>
-      <c r="C23" s="42">
+        <v>Subtelty</v>
+      </c>
+      <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25" t="str">
+      <c r="E23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="8" t="str">
         <f>Lists!$B$5</f>
-        <v>Statuses</v>
-      </c>
-      <c r="I23" s="33">
+        <v>Subtelty</v>
+      </c>
+      <c r="I23" s="12">
         <f>C23+
 IFERROR(VLOOKUP($F$20,youth[],5,FALSE),0) +
 IFERROR(VLOOKUP($F$21,adult[],5,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25" t="str">
+      <c r="K23" s="8" t="str">
         <f>Stats!K8</f>
         <v>resist_blunt</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N8,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O8)+
 (IFERROR(VLOOKUP(Stats!P8,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q8)+
 (IFERROR(VLOOKUP(Stats!R8,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S8)+Stats!M8</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="8" t="str">
         <f>Lists!$B$6</f>
-        <v>Health</v>
-      </c>
-      <c r="C24" s="42">
+        <v>Vigour</v>
+      </c>
+      <c r="C24" s="17">
         <v>5</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25" t="str">
+      <c r="E24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="8" t="str">
         <f>Lists!$B$6</f>
-        <v>Health</v>
-      </c>
-      <c r="I24" s="33">
+        <v>Vigour</v>
+      </c>
+      <c r="I24" s="12">
         <f>C24+
 IFERROR(VLOOKUP($F$20,youth[],6,FALSE),0) +
 IFERROR(VLOOKUP($F$21,adult[],6,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25" t="str">
+      <c r="K24" s="8" t="str">
         <f>Stats!K9</f>
         <v>resist_pierce</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N9,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O9)+
 (IFERROR(VLOOKUP(Stats!P9,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q9)+
 (IFERROR(VLOOKUP(Stats!R9,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S9)+Stats!M9</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25" t="str">
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12"/>
+      <c r="K25" s="8" t="str">
         <f>Stats!K10</f>
         <v>resist_elemental</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N10,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O10)+
 (IFERROR(VLOOKUP(Stats!P10,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q10)+
 (IFERROR(VLOOKUP(Stats!R10,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S10)+Stats!M10</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25" t="str">
+      <c r="B26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="8" t="str">
         <f>Stats!K11</f>
         <v>chance_to_hit</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N11,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O11)+
 (IFERROR(VLOOKUP(Stats!P11,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q11)+
 (IFERROR(VLOOKUP(Stats!R11,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S11)+Stats!M11</f>
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25" t="str">
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="12"/>
+      <c r="K27" s="8" t="str">
         <f>Stats!K12</f>
         <v>base_damage</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N12,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O12)+
 (IFERROR(VLOOKUP(Stats!P12,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q12)+
 (IFERROR(VLOOKUP(Stats!R12,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S12)+Stats!M12</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="25" t="str">
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="12"/>
+      <c r="K28" s="8" t="str">
         <f>Stats!K13</f>
         <v>hit points</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N13,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O13)+
 (IFERROR(VLOOKUP(Stats!P13,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q13)+
 (IFERROR(VLOOKUP(Stats!R13,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S13)+Stats!M13</f>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="25" t="str">
+      <c r="B29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="12"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="12"/>
+      <c r="K29" s="8" t="str">
         <f>Stats!K14</f>
         <v>action_cost_change</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="12">
         <f>(IFERROR(VLOOKUP(Stats!N14,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O14)+
 (IFERROR(VLOOKUP(Stats!P14,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q14)+
 (IFERROR(VLOOKUP(Stats!R14,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S14)+Stats!M14</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="27" t="str">
+      <c r="B30" s="9"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="str">
         <f>Stats!K15</f>
         <v>status_length</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="14">
         <f>(IFERROR(VLOOKUP(Stats!N15,Testing!$H$20:$I$24,2,FALSE),0) * Stats!O15)+
 (IFERROR(VLOOKUP(Stats!P15,Testing!$H$20:$I$24,2,FALSE),0) * Stats!Q15)+
 (IFERROR(VLOOKUP(Stats!R15,Testing!$H$20:$I$24,2,FALSE),0) * Stats!S15)+Stats!M15</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reference/combat_modelling.xlsx
+++ b/reference/combat_modelling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\NotQuiteParadise\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53670E5-638C-4446-99E6-EFE674D963C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8B4C3-B416-4479-916C-9620EF8B4369}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36450" yWindow="0" windowWidth="15150" windowHeight="21000" activeTab="2" xr2:uid="{B61F704B-B289-4DB0-8A42-128F7E4E2B4C}"/>
   </bookViews>
@@ -839,21 +839,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1301,6 +1286,21 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1541,11 +1541,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56842182-A38F-472C-8F28-74F940CA139A}" name="entity_primary_stats" displayName="entity_primary_stats" ref="B4:H9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00F24B6A-A907-4E37-8082-FC7DA03CD0E4}" name="Name" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00F24B6A-A907-4E37-8082-FC7DA03CD0E4}" name="Name" dataDxfId="32">
       <calculatedColumnFormula>Lists!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B612A34B-677F-4CF3-9DB1-A4DEF7A0ECC0}" name="Purpose" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D00B2AAA-E32A-4AED-B6E4-C6D71C6713CC}" name="Influences" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{B612A34B-677F-4CF3-9DB1-A4DEF7A0ECC0}" name="Purpose" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D00B2AAA-E32A-4AED-B6E4-C6D71C6713CC}" name="Influences" dataDxfId="30">
       <calculatedColumnFormula>IF(OR($N$5=C5,$P$5=C5,$R$5=C5),$K$5 &amp; ", ","") &amp;
 IF(OR($N$6=C5,$P$6=C5,$R$6=C5),$K$6 &amp; ", ","") &amp;
 IF(OR($N$7=C5,$P$7=C5,$R$7=C5),$K$7 &amp; ", ","") &amp;
@@ -1558,31 +1558,31 @@
 IF(OR($N$14=C5,$P$14=C5,$R$14=C5),$K$14 &amp; ", ","") &amp;
 IF(OR($N$15=C5,$P$15=C5,$R$15=C5),$K$15 &amp; ", ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E4038DD6-1CD5-43C6-9217-100476CEC204}" name="# influenced stats" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{E4038DD6-1CD5-43C6-9217-100476CEC204}" name="# influenced stats" dataDxfId="29">
       <calculatedColumnFormula>LEN(D5)-LEN(SUBSTITUTE(D5,",",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{175CFB49-E265-4916-B0C4-D5DEA5BEBF51}" name="Stat value" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{175CFB49-E265-4916-B0C4-D5DEA5BEBF51}" name="Stat value" dataDxfId="28">
       <calculatedColumnFormula>SUMIF(entity_derived_stats[Derived from (1)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (1)]) + SUMIF(entity_derived_stats[Derived from (2)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (2)]) + SUMIF(entity_derived_stats[Derived from (3)],entity_primary_stats[[#This Row],[Name]],entity_derived_stats[Amount Derived (3)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9B7ABCA-BC18-4059-B614-A6254871E453}" name="min # " dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{77EC5584-7C71-434B-8C87-E752B3CA1F16}" name="max #" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{C9B7ABCA-BC18-4059-B614-A6254871E453}" name="min # " dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{77EC5584-7C71-434B-8C87-E752B3CA1F16}" name="max #" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B1EC6D-90B4-4431-8769-8725ACDB1262}" name="adult" displayName="adult" ref="J18:P20" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B1EC6D-90B4-4431-8769-8725ACDB1262}" name="adult" displayName="adult" ref="J18:P20" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C498C6EC-EDCF-46B5-AC54-19697D44ACEE}" name="Name" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{C498C6EC-EDCF-46B5-AC54-19697D44ACEE}" name="Name" dataDxfId="23">
       <calculatedColumnFormula>Lists!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{173660BE-87D9-47FB-AA17-824F2720DA45}" name="Damage" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{14AD948D-BA0F-46D8-90E7-33C50DEE188A}" name="Accuracy" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{665079BF-14DC-4613-BA06-762971C6C47E}" name="Speed" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{47CFB954-5875-48DC-A786-5961B7D5B694}" name="Statuses" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{A39EAF1B-106D-4B64-9FE8-19283A107000}" name="Health" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{CC6A1BE2-5E8D-44B4-B68F-A740FC943358}" name="Total value" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{173660BE-87D9-47FB-AA17-824F2720DA45}" name="Damage" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{14AD948D-BA0F-46D8-90E7-33C50DEE188A}" name="Accuracy" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{665079BF-14DC-4613-BA06-762971C6C47E}" name="Speed" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{47CFB954-5875-48DC-A786-5961B7D5B694}" name="Statuses" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A39EAF1B-106D-4B64-9FE8-19283A107000}" name="Health" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{CC6A1BE2-5E8D-44B4-B68F-A740FC943358}" name="Total value" dataDxfId="17">
       <calculatedColumnFormula>SUM(K19:O19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1591,17 +1591,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DCB3CFA5-EDF9-4FEE-AC07-3B1486B62A80}" name="youth" displayName="youth" ref="B18:H20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DCB3CFA5-EDF9-4FEE-AC07-3B1486B62A80}" name="youth" displayName="youth" ref="B18:H20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D75C2AFC-B2E2-4AD9-8D70-0092B38CAEBC}" name="Name" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{D75C2AFC-B2E2-4AD9-8D70-0092B38CAEBC}" name="Name" dataDxfId="14">
       <calculatedColumnFormula>Lists!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3DFCE0EF-9561-447F-98CC-14C2AE7D7D94}" name="Damage" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FE008038-ABB8-485E-9AB4-637C767011CA}" name="Accuracy" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B48D67B2-B0DA-4E10-A588-E0E1BF2C9EE6}" name="Speed" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{45850A44-F014-4245-A354-C10DBFFC05EC}" name="Statuses" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8D878A50-BA27-475A-BB61-3A54095090E4}" name="Health" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{CF1F4B93-9B1A-4429-AF43-D4CC73A31715}" name="Total value" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{3DFCE0EF-9561-447F-98CC-14C2AE7D7D94}" name="Damage" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FE008038-ABB8-485E-9AB4-637C767011CA}" name="Accuracy" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B48D67B2-B0DA-4E10-A588-E0E1BF2C9EE6}" name="Speed" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{45850A44-F014-4245-A354-C10DBFFC05EC}" name="Statuses" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8D878A50-BA27-475A-BB61-3A54095090E4}" name="Health" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{CF1F4B93-9B1A-4429-AF43-D4CC73A31715}" name="Total value" dataDxfId="8">
       <calculatedColumnFormula>SUM(C19:G19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1610,18 +1610,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{27A7BA62-89F1-47C8-BA1A-ACF34F294D38}" name="attack_skills" displayName="attack_skills" ref="B3:I5" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{27A7BA62-89F1-47C8-BA1A-ACF34F294D38}" name="attack_skills" displayName="attack_skills" ref="B3:I5" totalsRowShown="0" headerRowDxfId="7">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EB8E6709-1E4E-4270-AE23-0136B1CFFBB6}" name="Name">
       <calculatedColumnFormula>Lists!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6CA35C9E-7272-4A55-A800-22AC2D20488E}" name="Base accuracy" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AE37A56D-22F9-44A2-881D-6FEBE14B6684}" name="Accuracy type" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{79B30171-9C13-48D7-AEBC-E01824C15451}" name="Base damage" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4AAF5594-E1B5-43C2-B0A6-BFE29D5199AE}" name="Damage type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F5C0387D-6960-4820-B8CE-85043E6F937C}" name="Cost" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{12DC5BF9-4E77-4D3F-A624-A73E0DADEF28}" name="Status Applied" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{92E43F99-EA94-459D-9EC5-23B0223BE593}" name="Status Length" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6CA35C9E-7272-4A55-A800-22AC2D20488E}" name="Base accuracy" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{AE37A56D-22F9-44A2-881D-6FEBE14B6684}" name="Accuracy type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{79B30171-9C13-48D7-AEBC-E01824C15451}" name="Base damage" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4AAF5594-E1B5-43C2-B0A6-BFE29D5199AE}" name="Damage type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F5C0387D-6960-4820-B8CE-85043E6F937C}" name="Cost" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{12DC5BF9-4E77-4D3F-A624-A73E0DADEF28}" name="Status Applied" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{92E43F99-EA94-459D-9EC5-23B0223BE593}" name="Status Length" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2168,7 +2168,7 @@
   <dimension ref="B2:S25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reference/combat_modelling.xlsx
+++ b/reference/combat_modelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\NotQuiteParadise\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8B4C3-B416-4479-916C-9620EF8B4369}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED43347-BEAA-45B6-AD77-A822C9A898D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36450" yWindow="0" windowWidth="15150" windowHeight="21000" activeTab="2" xr2:uid="{B61F704B-B289-4DB0-8A42-128F7E4E2B4C}"/>
+    <workbookView xWindow="36450" yWindow="0" windowWidth="15150" windowHeight="21000" activeTab="4" xr2:uid="{B61F704B-B289-4DB0-8A42-128F7E4E2B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference_Data" sheetId="5" r:id="rId1"/>
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131F03A5-DDF5-4590-8C79-0FDF3BA926D3}">
   <dimension ref="B2:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -3102,7 +3102,7 @@
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,8 +3219,8 @@
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4161,7 +4161,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="N2:X2"/>
